--- a/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,09%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>76,32; 85,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>79,52; 88,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>47,16; 60,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>86,92; 94,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>80,67; 89,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>55,69; 64,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>83,22; 88,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>82,11; 88,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>53,18; 61,4</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,52%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,56%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>58,61; 67,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>51,85; 61,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>79,81; 86,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>57,81; 68,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>65,58; 73,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>53,93; 63,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>79,68; 86,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>53,88; 61,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>63,12; 69,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>54,53; 60,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>80,67; 85,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>57,02; 63,78</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,42%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,13%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,81%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,2%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>58,56; 69,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>60,87; 71,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>73,96; 82,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>43,48; 55,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>52,73; 63,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>71,57; 81,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>78,77; 86,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>50,41; 60,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>57,71; 64,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>68,06; 74,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>77,51; 83,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>48,77; 56,18</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,08%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,73%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>67,97; 77,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>60,73; 68,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>42,59; 53,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>28,76; 41,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>66,16; 75,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>68,9; 76,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>53,23; 63,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>29,38; 39,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>68,49; 74,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>66,41; 71,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>49,59; 57,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>30,62; 38,98</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,2%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,52%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>75,3; 86,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>51,08; 64,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>86,42; 94,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>87,86; 95,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>81,34; 90,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>67,28; 79,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>87,26; 95,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>87,95; 94,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>80,0; 87,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>61,34; 70,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>88,44; 93,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>89,68; 94,74</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,61%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,9%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>65,73; 77,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>58,65; 70,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>74,46; 84,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>35,62; 46,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>68,1; 78,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>72,52; 82,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>75,92; 85,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>36,14; 45,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>68,85; 76,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>67,7; 75,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>76,62; 83,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>37,27; 44,29</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,88%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,7%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,81%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,92%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,81%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,76%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>49,48; 57,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>57,94; 65,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>82,01; 87,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>61,6; 70,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>45,84; 53,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>68,1; 75,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>86,02; 90,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>62,34; 69,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>48,89; 54,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>64,04; 69,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>84,67; 88,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>62,77; 68,5</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,33%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>80,12; 85,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>89,11; 93,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>91,03; 94,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>63,26; 86,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>86,03; 90,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>87,44; 91,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>93,12; 96,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>85,96; 90,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>83,9; 87,41</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>89,21; 92,1</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>92,74; 95,09</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>74,41; 87,62</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,43%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,87%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,05%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>68,69; 71,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>67,23; 70,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,47; 83,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>60,32; 65,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>70,83; 73,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>73,9; 76,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>83,39; 85,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>63,12; 66,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>70,27; 72,46</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>71,04; 73,28</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>82,36; 84,23</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>62,1; 65,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>53,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>57,09%</t>
+          <t>56,69%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,87; 84,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,16; 60,28</t>
+          <t>45,51; 60,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,07; 89,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,69; 64,86</t>
+          <t>55,4; 65,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,97; 85,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,18; 61,4</t>
+          <t>52,27; 61,31</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,58%</t>
+          <t>63,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>57,74%</t>
+          <t>57,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>60,56%</t>
+          <t>60,54%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,81; 68,47</t>
+          <t>57,17; 68,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,88; 61,58</t>
+          <t>53,89; 61,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>57,02; 63,78</t>
+          <t>56,66; 63,84</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>55,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>52,2%</t>
+          <t>51,85%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>43,48; 55,18</t>
+          <t>42,88; 54,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,41; 60,1</t>
+          <t>50,33; 60,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,77; 56,18</t>
+          <t>48,34; 55,94</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,0%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,86%</t>
+          <t>63,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>68,96%</t>
+          <t>58,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>30,94%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,73; 68,7</t>
+          <t>48,76; 59,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,76; 41,18</t>
+          <t>27,85; 40,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,9; 76,18</t>
+          <t>58,64; 68,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 39,69</t>
+          <t>16,88; 36,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66,41; 71,65</t>
+          <t>55,08; 62,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,62; 38,98</t>
+          <t>23,36; 36,27</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>92,61%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,86; 95,8</t>
+          <t>88,05; 95,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87,95; 94,83</t>
+          <t>88,34; 94,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>89,68; 94,74</t>
+          <t>89,87; 94,76</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>40,78%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,62; 46,93</t>
+          <t>35,31; 46,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,14; 45,65</t>
+          <t>36,15; 45,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,27; 44,29</t>
+          <t>37,15; 44,14</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>65,7%</t>
+          <t>65,54%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>65,68%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>61,6; 70,25</t>
+          <t>61,36; 70,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>62,34; 69,35</t>
+          <t>62,36; 69,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>62,77; 68,5</t>
+          <t>62,72; 68,62</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>80,48%</t>
+          <t>63,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>73,95%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>63,26; 86,52</t>
+          <t>29,79; 86,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>85,96; 90,25</t>
+          <t>85,98; 90,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>74,41; 87,62</t>
+          <t>44,18; 87,54</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>63,29%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>64,76%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>60,53%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>60,32; 65,5</t>
+          <t>45,06; 63,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>63,12; 66,31</t>
+          <t>57,8; 64,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>62,1; 65,4</t>
+          <t>51,87; 63,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,32; 85,6</t>
+          <t>76,8; 85,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,87; 84,32</t>
+          <t>73,33; 83,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,52; 88,37</t>
+          <t>80,01; 88,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,51; 60,06</t>
+          <t>45,99; 60,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,92; 94,01</t>
+          <t>87,02; 94,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,07; 89,97</t>
+          <t>81,38; 89,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,67; 89,66</t>
+          <t>81,63; 89,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,4; 65,31</t>
+          <t>55,23; 64,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,22; 88,89</t>
+          <t>82,93; 88,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>78,97; 85,72</t>
+          <t>78,83; 85,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>82,11; 88,05</t>
+          <t>81,7; 88,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,27; 61,31</t>
+          <t>52,46; 61,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,61; 67,71</t>
+          <t>58,3; 67,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,85; 61,18</t>
+          <t>52,0; 60,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,81; 86,52</t>
+          <t>79,98; 86,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,17; 68,33</t>
+          <t>58,26; 68,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,58; 73,5</t>
+          <t>65,06; 73,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,93; 63,11</t>
+          <t>54,17; 63,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,68; 86,08</t>
+          <t>79,33; 85,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,89; 61,57</t>
+          <t>53,67; 61,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,12; 69,3</t>
+          <t>63,17; 69,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,53; 60,7</t>
+          <t>54,16; 60,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,67; 85,23</t>
+          <t>80,72; 85,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,66; 63,84</t>
+          <t>56,93; 63,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,56; 69,52</t>
+          <t>58,7; 69,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,87; 71,57</t>
+          <t>60,5; 71,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,96; 82,9</t>
+          <t>73,82; 83,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,88; 54,79</t>
+          <t>42,88; 54,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,73; 63,42</t>
+          <t>53,65; 64,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,57; 81,14</t>
+          <t>71,28; 80,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,77; 86,68</t>
+          <t>79,12; 86,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,33; 60,04</t>
+          <t>50,62; 60,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57,71; 64,89</t>
+          <t>57,17; 65,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68,06; 74,8</t>
+          <t>67,79; 74,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>77,51; 83,7</t>
+          <t>77,73; 83,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,34; 55,94</t>
+          <t>47,83; 55,37</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,97; 77,04</t>
+          <t>67,49; 77,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,76; 59,34</t>
+          <t>48,51; 58,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,59; 53,64</t>
+          <t>42,65; 53,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,85; 40,58</t>
+          <t>27,42; 41,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,16; 75,62</t>
+          <t>66,82; 75,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,64; 68,15</t>
+          <t>58,12; 68,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,23; 63,77</t>
+          <t>53,55; 63,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 36,9</t>
+          <t>17,45; 37,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,49; 74,83</t>
+          <t>68,72; 75,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,08; 62,25</t>
+          <t>55,09; 62,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49,59; 57,05</t>
+          <t>49,28; 56,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,36; 36,27</t>
+          <t>22,09; 36,4</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>75,3; 86,41</t>
+          <t>74,66; 86,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,08; 64,65</t>
+          <t>51,37; 65,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>86,42; 94,36</t>
+          <t>86,58; 94,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>88,05; 95,78</t>
+          <t>88,24; 95,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,34; 90,97</t>
+          <t>81,26; 90,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,28; 79,44</t>
+          <t>67,99; 79,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,26; 95,04</t>
+          <t>87,4; 94,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,34; 94,87</t>
+          <t>88,91; 94,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,0; 87,43</t>
+          <t>79,94; 87,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>61,34; 70,49</t>
+          <t>61,32; 70,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>88,44; 93,73</t>
+          <t>88,44; 93,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>89,87; 94,76</t>
+          <t>89,55; 94,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>65,73; 77,08</t>
+          <t>65,95; 76,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,65; 70,88</t>
+          <t>59,78; 71,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,46; 84,0</t>
+          <t>74,44; 84,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,31; 46,78</t>
+          <t>35,49; 46,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>68,1; 78,62</t>
+          <t>68,22; 78,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>72,52; 82,23</t>
+          <t>73,0; 83,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,92; 85,68</t>
+          <t>76,18; 85,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,15; 45,7</t>
+          <t>36,5; 45,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>68,85; 76,56</t>
+          <t>68,85; 76,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>67,7; 75,6</t>
+          <t>67,34; 75,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>76,62; 83,51</t>
+          <t>76,99; 83,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,15; 44,14</t>
+          <t>37,0; 44,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>49,48; 57,66</t>
+          <t>49,81; 57,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>57,94; 65,65</t>
+          <t>57,91; 65,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>82,01; 87,75</t>
+          <t>81,93; 87,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>61,36; 70,49</t>
+          <t>60,93; 70,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,84; 53,99</t>
+          <t>45,76; 53,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,1; 75,26</t>
+          <t>68,05; 74,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,02; 90,92</t>
+          <t>85,91; 90,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>62,36; 69,28</t>
+          <t>62,11; 69,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>48,89; 54,73</t>
+          <t>49,11; 54,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>64,04; 69,45</t>
+          <t>64,25; 69,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>84,67; 88,73</t>
+          <t>84,9; 88,69</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>62,72; 68,62</t>
+          <t>62,58; 68,27</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>80,12; 85,7</t>
+          <t>80,41; 85,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>89,11; 93,15</t>
+          <t>89,15; 93,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>91,03; 94,71</t>
+          <t>91,17; 94,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,79; 86,5</t>
+          <t>27,63; 86,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,03; 90,32</t>
+          <t>85,78; 90,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>87,44; 91,98</t>
+          <t>87,35; 92,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>93,12; 96,35</t>
+          <t>93,22; 96,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>85,98; 90,22</t>
+          <t>85,83; 90,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>83,9; 87,41</t>
+          <t>84,0; 87,58</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>89,21; 92,1</t>
+          <t>88,99; 92,09</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>92,74; 95,09</t>
+          <t>92,72; 95,13</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>44,18; 87,54</t>
+          <t>46,22; 87,52</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>68,69; 71,99</t>
+          <t>68,81; 71,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>67,23; 70,51</t>
+          <t>67,33; 70,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>80,47; 83,26</t>
+          <t>80,69; 83,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45,06; 63,82</t>
+          <t>44,53; 63,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>70,83; 73,86</t>
+          <t>70,65; 73,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>73,9; 76,69</t>
+          <t>73,71; 76,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>83,39; 85,92</t>
+          <t>83,36; 85,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>57,8; 64,61</t>
+          <t>58,44; 64,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>70,27; 72,46</t>
+          <t>70,14; 72,39</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>71,04; 73,28</t>
+          <t>70,94; 73,25</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>82,36; 84,23</t>
+          <t>82,45; 84,33</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>51,87; 63,45</t>
+          <t>51,76; 63,52</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo social funcional bajo, por encima del percentil 15</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>222160</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>224440</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>242185</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>163669</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>237442</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>238617</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>241503</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>172655</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>459602</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>463057</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>483688</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>336324</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>209028; 233782</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>207274; 236692</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>228722; 253669</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>141127; 185913</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>226989; 245479</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>225730; 249101</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>229702; 252676</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>158185; 185918</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>442038; 473911</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>441452; 479233</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>463442; 500628</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>311196; 362498</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>307842</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>283858</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>414732</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>325567</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>350153</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>305803</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>428617</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>295479</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>657995</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>589661</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>843349</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>621046</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>285803; 328972</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>261306; 304969</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>397785; 429954</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>299439; 354567</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>327879; 369296</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>283057; 329699</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>410637; 444764</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>274767; 314083</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>627999; 688124</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>555173; 622155</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>819380; 867549</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>584012; 654858</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>204739</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>214624</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>248849</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>143821</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>195801</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>258187</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>276002</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>173868</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>400540</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>472811</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>524851</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>317689</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>187162; 221135</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>195422; 230041</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>233758; 263427</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>127249; 160909</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>179933; 214973</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>240828; 272740</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>263361; 289387</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>159937; 189775</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>374040; 425747</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>448023; 494174</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>504863; 544158</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>293092; 339256</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>259978</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>200220</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>175142</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>104296</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>264646</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>245421</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>224118</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>134707</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>524624</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>445642</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>399260</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>239003</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>242074; 276574</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>179840; 218555</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>156910; 196092</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>84560; 126702</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>248212; 281063</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>224915; 263978</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>205800; 243810</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80998; 174892</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>501778; 548507</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>417404; 472613</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>370685; 427552</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>170694; 281237</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>164866</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>122452</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>191605</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>165395</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>178888</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>162425</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>200368</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>192391</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>343754</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>284877</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>391973</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>357786</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>151784; 175788</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>108708; 137694</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>181943; 198753</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>157116; 170548</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>167948; 187765</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>148699; 174835</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>191044; 206933</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>185170; 197359</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>327738; 357473</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>263853; 305429</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>379190; 402681</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>345952; 365330</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>193853</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>175398</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>209441</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>108964</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>204735</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>216306</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>221120</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>105239</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>398589</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>391703</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>430561</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>214203</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>178598; 208089</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>160690; 192553</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>195858; 222118</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>95336; 123649</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>189759; 218754</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>202150; 230376</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>206575; 232688</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>93680; 117301</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>377939; 419919</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>367456; 413419</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>411355; 446686</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>194379; 233030</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>332189</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>404679</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>554947</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>401914</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>318018</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>487816</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>602152</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>415313</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>650206</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>892495</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1157099</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>817228</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>306316; 355799</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>378706; 431298</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>534128; 571350</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>373636; 430238</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>291631; 341372</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>464062; 510997</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>584202; 618188</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>391989; 439682</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>615023; 684514</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>858305; 927532</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1130760; 1181339</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>778662; 849471</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1409</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1606</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>617733</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>706458</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>721697</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>582845</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>690983</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>737813</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>781120</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>630412</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1308716</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1444272</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1502818</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1213257</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>596175; 637338</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>689226; 721036</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>706481; 734219</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>255598; 798506</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>671110; 707476</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>716792; 755391</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>767023; 793399</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>614076; 645079</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1280028; 1334522</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1418180; 1467711</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1481428; 1519856</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>758285; 1435830</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2266</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2172</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2626</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2220</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2453</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2788</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>5414</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2303361</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2332130</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2758599</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1996471</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2440666</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2652387</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2975000</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2120065</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>4744028</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>4984518</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>5733599</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>4116536</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2250542; 2354164</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2280017; 2384626</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2717762; 2808146</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1518941; 2174881</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2385333; 2485211</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2596683; 2703225</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2924839; 3015188</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1980925; 2201273</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4661791; 4811229</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4901721; 5060829</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>5669921; 5799050</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3520377; 4320061</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>